--- a/data/trans_bre/P6907S1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6907S1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-58,19%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,5%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,83; 6,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; 13,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 20,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,23%</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,16; 11,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,9; 19,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,42; -1,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,99; 5,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 816,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,73%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,14; 15,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,94; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,44; 28,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,69; 15,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,73; 192,55</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,13%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,31; 21,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,29; 9,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,17; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,4; 1,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>16,26</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-19,25</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>131,7%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,47; 60,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,72; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,14; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-7,22</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,64</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,67</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>-50,66%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,72%</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,57; 14,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,69; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,41; -4,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,28; -1,82</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,32%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 16,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 7,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,63; 15,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,51; 238,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,07; 166,65</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>8,92</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-8,95</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>150,97%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 22,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,43; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,65; 665,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,18%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,27%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,6%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 6,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; 2,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 2,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 2,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,46; 93,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 136,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,34; 125,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,13; 30,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6907S1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>144,5%</t>
+          <t>166,92%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,22; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 20,89</t>
+          <t>-5,25; 21,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-44,23%</t>
+          <t>-42,94%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 5,3</t>
+          <t>-16,55; 5,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>17,53%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 15,19</t>
+          <t>-10,71; 15,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,73; 192,55</t>
+          <t>-53,09; 193,45</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,43</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,48%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-88,13%</t>
+          <t>-91,59%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 9,53</t>
+          <t>-23,3; 42,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 1,2</t>
+          <t>-39,25; 0,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 0,0</t>
+          <t>-16,01; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-19,67</t>
+          <t>-19,86</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-77,72%</t>
+          <t>-77,99%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,41; -4,1</t>
+          <t>-35,74; -4,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-95,28; -1,82</t>
+          <t>-95,29; -2,24</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>17,49%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 15,16</t>
+          <t>-10,37; 15,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-51,07; 166,65</t>
+          <t>-51,15; 174,7</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,58</t>
+          <t>0,0; 11,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-20,6%</t>
+          <t>-24,84%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 2,61</t>
+          <t>-7,52; 2,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-50,13; 30,78</t>
+          <t>-55,99; 25,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6907S1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 6,01</t>
+          <t>-16,12; 5,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 0,0</t>
+          <t>-22,69; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 13,81</t>
+          <t>-7,29; 13,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 21,6</t>
+          <t>-4,89; 21,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 11,7</t>
+          <t>-12,23; 11,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 19,97</t>
+          <t>-7,82; 19,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,42; -1,21</t>
+          <t>-10,38; -1,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 5,26</t>
+          <t>-17,87; 5,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 816,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 15,86</t>
+          <t>-15,58; 15,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 0,0</t>
+          <t>-42,9; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 28,31</t>
+          <t>-8,33; 23,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 15,04</t>
+          <t>-10,21; 15,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 193,45</t>
+          <t>-51,54; 199,97</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 21,38</t>
+          <t>-7,54; 23,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 42,04</t>
+          <t>-23,42; 42,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 0,0</t>
+          <t>-13,89; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 0,44</t>
+          <t>-37,68; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 60,21</t>
+          <t>-12,75; 63,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-50,72; 0,0</t>
+          <t>-58,79; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 0,0</t>
+          <t>-15,7; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 14,11</t>
+          <t>-19,96; 17,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1178,17 +1178,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 0,0</t>
+          <t>-29,25; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,74; -4,41</t>
+          <t>-36,34; -6,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-95,29; -2,24</t>
+          <t>-100,0; -27,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,27 +1268,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 16,29</t>
+          <t>-10,17; 16,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,14</t>
+          <t>0,0; 14,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 7,03</t>
+          <t>-4,29; 8,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 15,75</t>
+          <t>-9,47; 16,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-64,51; 238,16</t>
+          <t>-62,7; 248,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 174,7</t>
+          <t>-48,54; 181,37</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 22,72</t>
+          <t>-1,17; 20,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 0,0</t>
+          <t>-28,77; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,69</t>
+          <t>0,0; 10,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 665,19</t>
+          <t>-33,92; 585,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 6,86</t>
+          <t>-2,84; 6,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 2,16</t>
+          <t>-7,91; 2,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,17</t>
+          <t>-3,54; 2,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 2,04</t>
+          <t>-7,97; 1,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 93,45</t>
+          <t>-26,04; 88,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 136,17</t>
+          <t>-100,0; 96,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-81,34; 125,13</t>
+          <t>-79,45; 108,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 25,61</t>
+          <t>-55,55; 21,33</t>
         </is>
       </c>
     </row>
